--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="89">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>BordonFC04</t>
-  </si>
-  <si>
-    <t>BORGES CLIMA FUT F.C</t>
-  </si>
-  <si>
-    <t>BORGES ITAQUI F.C.</t>
   </si>
   <si>
     <t>C.A. Charru@</t>
@@ -652,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6843,244 +6837,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
-      <c r="A53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <v>0</v>
-      </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>0</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
-      <c r="AI54">
-        <v>0</v>
-      </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
-      <c r="AK54">
-        <v>0</v>
-      </c>
-      <c r="AL54">
-        <v>0</v>
-      </c>
-      <c r="AM54">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7088,7 +6844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10315,130 +10071,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10446,7 +10078,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10467,7 +10099,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10475,7 +10107,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10483,7 +10115,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10491,7 +10123,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10499,7 +10131,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10507,7 +10139,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10515,7 +10147,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10523,7 +10155,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10531,7 +10163,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10539,7 +10171,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10547,7 +10179,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -10563,7 +10195,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10571,7 +10203,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -10579,7 +10211,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -10587,7 +10219,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -10595,7 +10227,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10603,7 +10235,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10611,7 +10243,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10619,7 +10251,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10627,7 +10259,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10635,7 +10267,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10643,7 +10275,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10651,7 +10283,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10659,7 +10291,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10667,7 +10299,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10675,7 +10307,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10683,7 +10315,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10691,7 +10323,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10699,7 +10331,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10707,7 +10339,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10715,7 +10347,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10723,7 +10355,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10731,7 +10363,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10739,7 +10371,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10747,7 +10379,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10755,7 +10387,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10763,7 +10395,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10771,7 +10403,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10779,7 +10411,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10787,7 +10419,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10795,7 +10427,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10803,7 +10435,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10811,7 +10443,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10819,7 +10451,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10827,7 +10459,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10835,7 +10467,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10843,7 +10475,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10851,7 +10483,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10859,25 +10491,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -10888,7 +10504,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10909,7 +10525,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10917,7 +10533,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10925,7 +10541,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10933,7 +10549,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10941,7 +10557,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -10949,7 +10565,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -10957,7 +10573,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -10965,7 +10581,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -10973,7 +10589,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -10981,7 +10597,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -10989,7 +10605,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11005,7 +10621,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11013,7 +10629,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11021,7 +10637,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11029,7 +10645,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11037,7 +10653,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11045,7 +10661,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11053,7 +10669,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11061,7 +10677,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11069,7 +10685,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11077,7 +10693,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11085,7 +10701,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11093,7 +10709,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11101,7 +10717,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11109,7 +10725,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11117,7 +10733,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11125,7 +10741,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11133,7 +10749,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11141,7 +10757,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11149,7 +10765,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11157,7 +10773,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11165,7 +10781,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11173,7 +10789,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11181,7 +10797,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11189,7 +10805,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11197,7 +10813,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11205,7 +10821,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11213,7 +10829,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11221,7 +10837,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11229,7 +10845,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11237,7 +10853,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11245,7 +10861,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11253,7 +10869,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11261,7 +10877,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11269,7 +10885,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11277,7 +10893,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11285,7 +10901,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11293,7 +10909,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11301,25 +10917,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -11330,7 +10930,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11351,7 +10951,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11359,7 +10959,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11367,7 +10967,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11375,7 +10975,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11383,7 +10983,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11391,7 +10991,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11399,7 +10999,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11407,7 +11007,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11415,7 +11015,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11423,7 +11023,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11431,7 +11031,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11447,7 +11047,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11455,7 +11055,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11463,7 +11063,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11471,7 +11071,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11479,7 +11079,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11487,7 +11087,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11495,7 +11095,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11503,7 +11103,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11511,7 +11111,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11519,7 +11119,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11527,7 +11127,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11535,7 +11135,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11543,7 +11143,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11551,7 +11151,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11559,7 +11159,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11567,7 +11167,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11575,7 +11175,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11583,7 +11183,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11591,7 +11191,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11599,7 +11199,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11607,7 +11207,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11615,7 +11215,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11623,7 +11223,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11631,7 +11231,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11639,7 +11239,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11647,7 +11247,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11655,7 +11255,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11663,7 +11263,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11671,7 +11271,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11679,7 +11279,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11687,7 +11287,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11695,7 +11295,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11703,7 +11303,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11711,7 +11311,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11719,7 +11319,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11727,7 +11327,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11735,7 +11335,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11743,25 +11343,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -11772,7 +11356,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11793,7 +11377,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11801,7 +11385,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -11809,7 +11393,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -11817,7 +11401,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -11825,7 +11409,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11833,7 +11417,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11841,7 +11425,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11849,7 +11433,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11857,7 +11441,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11865,7 +11449,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11873,7 +11457,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11889,7 +11473,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11897,7 +11481,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -11905,7 +11489,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -11913,7 +11497,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -11921,7 +11505,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -11929,7 +11513,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11937,7 +11521,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11945,7 +11529,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11953,7 +11537,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11961,7 +11545,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11969,7 +11553,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11977,7 +11561,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11985,7 +11569,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11993,7 +11577,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12001,7 +11585,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12009,7 +11593,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12017,7 +11601,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12025,7 +11609,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12033,7 +11617,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12041,7 +11625,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12049,7 +11633,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12057,7 +11641,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12065,7 +11649,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12073,7 +11657,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12081,7 +11665,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12089,7 +11673,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12097,7 +11681,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12105,7 +11689,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12113,7 +11697,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12121,7 +11705,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12129,7 +11713,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12137,7 +11721,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -12145,7 +11729,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12153,7 +11737,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12161,7 +11745,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12169,7 +11753,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12177,7 +11761,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -12185,25 +11769,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -12214,7 +11782,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12235,7 +11803,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12243,7 +11811,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12251,7 +11819,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12259,7 +11827,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12267,7 +11835,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12275,7 +11843,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12283,7 +11851,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12291,7 +11859,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12299,7 +11867,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12307,7 +11875,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12315,7 +11883,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12331,7 +11899,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12339,7 +11907,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12347,7 +11915,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12355,7 +11923,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12363,7 +11931,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12371,7 +11939,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12379,7 +11947,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12387,7 +11955,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12395,7 +11963,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12403,7 +11971,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12411,7 +11979,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12419,7 +11987,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12427,7 +11995,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12435,7 +12003,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12443,7 +12011,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12451,7 +12019,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12459,7 +12027,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12467,7 +12035,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12475,7 +12043,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12483,7 +12051,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12491,7 +12059,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12499,7 +12067,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12507,7 +12075,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12515,7 +12083,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12523,7 +12091,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12531,7 +12099,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12539,7 +12107,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12547,7 +12115,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12555,7 +12123,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12563,7 +12131,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12571,7 +12139,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12579,7 +12147,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -12587,7 +12155,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12595,7 +12163,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12603,7 +12171,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12611,7 +12179,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12619,7 +12187,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -12627,25 +12195,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -12656,7 +12208,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12677,7 +12229,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12685,7 +12237,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -12693,7 +12245,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -12701,7 +12253,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -12709,7 +12261,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -12717,7 +12269,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -12725,7 +12277,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -12733,7 +12285,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -12741,7 +12293,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -12749,7 +12301,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -12757,7 +12309,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -12773,7 +12325,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12781,7 +12333,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -12789,7 +12341,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -12797,7 +12349,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -12805,7 +12357,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -12813,7 +12365,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -12821,7 +12373,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -12829,7 +12381,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -12837,7 +12389,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12845,7 +12397,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12853,7 +12405,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -12861,7 +12413,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12869,7 +12421,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12877,7 +12429,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12885,7 +12437,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12893,7 +12445,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12901,7 +12453,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12909,7 +12461,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12917,7 +12469,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12925,7 +12477,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12933,7 +12485,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12941,7 +12493,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12949,7 +12501,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12957,7 +12509,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12965,7 +12517,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12973,7 +12525,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12981,7 +12533,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12989,7 +12541,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12997,7 +12549,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -13005,7 +12557,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -13013,7 +12565,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -13021,7 +12573,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -13029,7 +12581,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -13037,7 +12589,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -13045,7 +12597,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -13053,7 +12605,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -13061,7 +12613,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13069,25 +12621,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -13098,7 +12634,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13119,7 +12655,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -13127,7 +12663,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -13135,7 +12671,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -13143,7 +12679,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -13151,7 +12687,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13159,7 +12695,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -13167,7 +12703,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -13175,7 +12711,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -13183,7 +12719,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -13191,7 +12727,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -13199,7 +12735,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -13215,7 +12751,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -13223,7 +12759,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -13231,7 +12767,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -13239,7 +12775,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -13247,7 +12783,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -13255,7 +12791,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -13263,7 +12799,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -13271,7 +12807,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -13279,7 +12815,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -13287,7 +12823,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -13295,7 +12831,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -13303,7 +12839,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -13311,7 +12847,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -13319,7 +12855,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -13327,7 +12863,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -13335,7 +12871,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -13343,7 +12879,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -13351,7 +12887,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -13359,7 +12895,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -13367,7 +12903,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -13375,7 +12911,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -13383,7 +12919,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -13391,7 +12927,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -13399,7 +12935,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -13407,7 +12943,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -13415,7 +12951,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -13423,7 +12959,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -13431,7 +12967,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -13439,7 +12975,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -13447,7 +12983,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -13455,7 +12991,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -13463,7 +12999,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -13471,7 +13007,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -13479,7 +13015,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -13487,7 +13023,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -13495,7 +13031,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -13503,7 +13039,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13511,25 +13047,9 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54">
         <v>0</v>
       </c>
     </row>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="90">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Tatols Beants F.C</t>
+  </si>
+  <si>
+    <t>TEAM LOPES 99</t>
   </si>
   <si>
     <t>teves_futsal20 f.c</t>
@@ -646,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6837,6 +6840,125 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:39">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6844,7 +6966,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10071,6 +10193,68 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10078,7 +10262,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10099,7 +10283,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10187,7 +10371,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10195,7 +10379,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10283,7 +10467,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10291,7 +10475,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10299,7 +10483,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10307,7 +10491,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10315,7 +10499,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10323,7 +10507,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10331,7 +10515,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10339,7 +10523,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10347,7 +10531,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10355,7 +10539,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10363,7 +10547,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10371,7 +10555,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10379,7 +10563,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10387,7 +10571,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10395,7 +10579,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10403,7 +10587,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10411,7 +10595,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10419,7 +10603,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10427,7 +10611,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10435,7 +10619,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10443,7 +10627,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10451,7 +10635,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10459,7 +10643,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10467,7 +10651,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10475,7 +10659,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10483,7 +10667,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10491,9 +10675,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -10504,7 +10696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10525,7 +10717,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10613,7 +10805,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -10621,7 +10813,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -10709,7 +10901,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10717,7 +10909,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -10725,7 +10917,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -10733,7 +10925,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -10741,7 +10933,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -10749,7 +10941,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -10757,7 +10949,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -10765,7 +10957,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -10773,7 +10965,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -10781,7 +10973,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -10789,7 +10981,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -10797,7 +10989,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -10805,7 +10997,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10813,7 +11005,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -10821,7 +11013,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -10829,7 +11021,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -10837,7 +11029,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -10845,7 +11037,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -10853,7 +11045,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -10861,7 +11053,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -10869,7 +11061,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -10877,7 +11069,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -10885,7 +11077,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -10893,7 +11085,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -10901,7 +11093,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -10909,7 +11101,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -10917,9 +11109,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -10930,7 +11130,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10951,7 +11151,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11039,7 +11239,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11047,7 +11247,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11135,7 +11335,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11143,7 +11343,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11151,7 +11351,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11159,7 +11359,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11167,7 +11367,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11175,7 +11375,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11183,7 +11383,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11191,7 +11391,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11199,7 +11399,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11207,7 +11407,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11215,7 +11415,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11223,7 +11423,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11231,7 +11431,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11239,7 +11439,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11247,7 +11447,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11255,7 +11455,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11263,7 +11463,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11271,7 +11471,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11279,7 +11479,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11287,7 +11487,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11295,7 +11495,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11303,7 +11503,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11311,7 +11511,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11319,7 +11519,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11327,7 +11527,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11335,7 +11535,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11343,9 +11543,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -11356,7 +11564,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11377,7 +11585,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11465,7 +11673,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11473,7 +11681,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11561,7 +11769,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11569,7 +11777,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -11577,7 +11785,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -11585,7 +11793,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -11593,7 +11801,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -11601,7 +11809,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -11609,7 +11817,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -11617,7 +11825,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -11625,7 +11833,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11633,7 +11841,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11641,7 +11849,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -11649,7 +11857,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -11657,7 +11865,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -11665,7 +11873,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -11673,7 +11881,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -11681,7 +11889,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -11689,7 +11897,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -11697,7 +11905,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -11705,7 +11913,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -11713,7 +11921,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -11721,7 +11929,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -11729,7 +11937,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -11737,7 +11945,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -11745,7 +11953,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -11753,7 +11961,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -11761,7 +11969,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -11769,9 +11977,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -11782,7 +11998,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11803,7 +12019,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11891,7 +12107,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -11899,7 +12115,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -11987,7 +12203,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11995,7 +12211,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12003,7 +12219,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12011,7 +12227,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12019,7 +12235,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12027,7 +12243,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12035,7 +12251,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12043,7 +12259,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12051,7 +12267,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12059,7 +12275,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12067,7 +12283,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12075,7 +12291,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12083,7 +12299,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12091,7 +12307,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12099,7 +12315,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12107,7 +12323,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12115,7 +12331,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12123,7 +12339,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12131,7 +12347,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12139,7 +12355,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12147,7 +12363,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -12155,7 +12371,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12163,7 +12379,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12171,7 +12387,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12179,7 +12395,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12187,7 +12403,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -12195,9 +12411,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -12208,7 +12432,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12229,7 +12453,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12317,7 +12541,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12325,7 +12549,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12413,7 +12637,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12421,7 +12645,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12429,7 +12653,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12437,7 +12661,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12445,7 +12669,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12453,7 +12677,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12461,7 +12685,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12469,7 +12693,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12477,7 +12701,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12485,7 +12709,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12493,7 +12717,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12501,7 +12725,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12509,7 +12733,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12517,7 +12741,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12525,7 +12749,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12533,7 +12757,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12541,7 +12765,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12549,7 +12773,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12557,7 +12781,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12565,7 +12789,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12573,7 +12797,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -12581,7 +12805,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -12589,7 +12813,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -12597,7 +12821,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -12605,7 +12829,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -12613,7 +12837,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -12621,9 +12845,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>
@@ -12634,7 +12866,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12655,7 +12887,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -12743,7 +12975,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -12751,7 +12983,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -12839,7 +13071,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -12847,7 +13079,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -12855,7 +13087,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -12863,7 +13095,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -12871,7 +13103,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -12879,7 +13111,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -12887,7 +13119,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -12895,7 +13127,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -12903,7 +13135,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -12911,7 +13143,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -12919,7 +13151,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -12927,7 +13159,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -12935,7 +13167,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -12943,7 +13175,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -12951,7 +13183,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -12959,7 +13191,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -12967,7 +13199,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -12975,7 +13207,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -12983,7 +13215,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -12991,7 +13223,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -12999,7 +13231,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -13007,7 +13239,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -13015,7 +13247,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -13023,7 +13255,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -13031,7 +13263,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -13039,7 +13271,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -13047,9 +13279,17 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
         <v>0</v>
       </c>
     </row>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
     <sheet name="Turno 2" sheetId="2" r:id="rId2"/>
     <sheet name="Classif Turno 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Mês - Janeiro" sheetId="4" r:id="rId4"/>
-    <sheet name="Mês - Fevereiro" sheetId="5" r:id="rId5"/>
-    <sheet name="Mês - Março" sheetId="6" r:id="rId6"/>
-    <sheet name="Mês - Abril" sheetId="7" r:id="rId7"/>
-    <sheet name="Mês - Maio" sheetId="8" r:id="rId8"/>
-    <sheet name="Mês - Julho" sheetId="9" r:id="rId9"/>
+    <sheet name="Mes - Janeiro" sheetId="4" r:id="rId4"/>
+    <sheet name="Mes - Fevereiro" sheetId="5" r:id="rId5"/>
+    <sheet name="Mes - Marco" sheetId="6" r:id="rId6"/>
+    <sheet name="Mes - Abril" sheetId="7" r:id="rId7"/>
+    <sheet name="Mes - Maio" sheetId="8" r:id="rId8"/>
+    <sheet name="Mes - Julho" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="91">
   <si>
     <t>Rodada 1</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>VASCO MARTINS FC</t>
+  </si>
+  <si>
+    <t>Lider_Rodada</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -776,7 +779,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>59.56</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -895,7 +898,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>45.3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1014,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>30.06</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1133,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>69.56</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1252,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>54.06</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1371,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1490,7 +1493,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>53.06</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1609,7 +1612,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1728,7 +1731,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>71.36</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1847,7 +1850,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1966,7 +1969,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>58.4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2085,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>45.46</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2204,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>48.46</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2323,7 +2326,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>30.32</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2442,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>52.36</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2561,7 +2564,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>50.6</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2680,7 +2683,7 @@
         <v>54</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>44.06</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2799,7 +2802,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>49.16</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2918,7 +2921,7 @@
         <v>56</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3037,7 +3040,7 @@
         <v>57</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>56.65</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3156,7 +3159,7 @@
         <v>58</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>43.1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3275,7 +3278,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3394,7 +3397,7 @@
         <v>60</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>39.66</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3513,7 +3516,7 @@
         <v>61</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>39.66</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3632,7 +3635,7 @@
         <v>62</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>54.36</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3751,7 +3754,7 @@
         <v>63</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>58.26</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3870,7 +3873,7 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>58.51</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3989,7 +3992,7 @@
         <v>65</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>69.76000000000001</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4108,7 +4111,7 @@
         <v>66</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>47.66</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4227,7 +4230,7 @@
         <v>67</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>45.86</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4346,7 +4349,7 @@
         <v>68</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>23.26</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4465,7 +4468,7 @@
         <v>69</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>73.66</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4584,7 +4587,7 @@
         <v>70</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>60.36</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4703,7 +4706,7 @@
         <v>71</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>26.51</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4822,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>48.06</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4941,7 +4944,7 @@
         <v>73</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>60.66</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5060,7 +5063,7 @@
         <v>74</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>51.05</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5179,7 +5182,7 @@
         <v>75</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>59.76</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5298,7 +5301,7 @@
         <v>76</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>34.36</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5417,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5536,7 +5539,7 @@
         <v>78</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>55.96</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5655,7 +5658,7 @@
         <v>79</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>34.76</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5774,7 +5777,7 @@
         <v>80</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>45.3</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5893,7 +5896,7 @@
         <v>81</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>57.76</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6012,7 +6015,7 @@
         <v>82</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6131,7 +6134,7 @@
         <v>83</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>64.95999999999999</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6250,7 +6253,7 @@
         <v>84</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>50.76</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6369,7 +6372,7 @@
         <v>85</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6488,7 +6491,7 @@
         <v>86</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>59.86</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6607,7 +6610,7 @@
         <v>87</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>46.56</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6726,7 +6729,7 @@
         <v>88</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>63.66</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6845,7 +6848,7 @@
         <v>89</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>35.8</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -6956,6 +6959,125 @@
         <v>0</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
         <v>0</v>
       </c>
     </row>
@@ -6966,7 +7088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10252,6 +10374,68 @@
         <v>0</v>
       </c>
       <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
         <v>0</v>
       </c>
     </row>
@@ -10709,74 +10893,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>73.66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>71.70999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>71.36</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>69.76000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>69.56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>69.26000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>64.95999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>63.66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10784,63 +10968,63 @@
         <v>73</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>60.66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>60.36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>59.86</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>59.76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>59.56</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>58.51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10848,279 +11032,279 @@
         <v>81</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>55.96</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>54.36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>54.06</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>52.36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>51.05</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>50.76</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>48.46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>48.06</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>47.66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>45.86</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>45.46</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>44.06</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>34.76</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>34.36</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>30.32</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>26.51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>21.7</v>
       </c>
     </row>
   </sheetData>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -779,7 +779,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>59.56</v>
+        <v>63.76</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>45.3</v>
+        <v>48.89</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>30.06</v>
+        <v>33.96</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>69.56</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>54.06</v>
+        <v>57.96</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>53.06</v>
+        <v>57.26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>69.26000000000001</v>
+        <v>71.16</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>47.2</v>
+        <v>52.39</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>58.4</v>
+        <v>59.69</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="B13">
-        <v>45.46</v>
+        <v>49.36</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>48.46</v>
+        <v>52.66</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>30.32</v>
+        <v>31.92</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>52.36</v>
+        <v>53.66</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>50.6</v>
+        <v>56.09</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>49.16</v>
+        <v>50.76</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>56</v>
       </c>
       <c r="B20">
-        <v>21.7</v>
+        <v>26.89</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>58</v>
       </c>
       <c r="B22">
-        <v>43.1</v>
+        <v>48.29</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>41.6</v>
+        <v>46.79</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>60</v>
       </c>
       <c r="B24">
-        <v>39.66</v>
+        <v>43.56</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>61</v>
       </c>
       <c r="B25">
-        <v>39.66</v>
+        <v>43.56</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>62</v>
       </c>
       <c r="B26">
-        <v>54.36</v>
+        <v>58.26</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>63</v>
       </c>
       <c r="B27">
-        <v>58.26</v>
+        <v>57.96</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>65</v>
       </c>
       <c r="B29">
-        <v>69.76000000000001</v>
+        <v>71.36</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>66</v>
       </c>
       <c r="B30">
-        <v>47.66</v>
+        <v>48.96</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>67</v>
       </c>
       <c r="B31">
-        <v>45.86</v>
+        <v>47.16</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>68</v>
       </c>
       <c r="B32">
-        <v>23.26</v>
+        <v>25.16</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>69</v>
       </c>
       <c r="B33">
-        <v>73.66</v>
+        <v>81.76000000000001</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>70</v>
       </c>
       <c r="B34">
-        <v>60.36</v>
+        <v>61.96</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>71</v>
       </c>
       <c r="B35">
-        <v>26.51</v>
+        <v>31.61</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="B36">
-        <v>48.06</v>
+        <v>51.66</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>73</v>
       </c>
       <c r="B37">
-        <v>60.66</v>
+        <v>61.96</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>74</v>
       </c>
       <c r="B38">
-        <v>51.05</v>
+        <v>54.95</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>75</v>
       </c>
       <c r="B39">
-        <v>59.76</v>
+        <v>65.06</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="B41">
-        <v>38.5</v>
+        <v>48.5</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>78</v>
       </c>
       <c r="B42">
-        <v>55.96</v>
+        <v>57.56</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>79</v>
       </c>
       <c r="B43">
-        <v>34.76</v>
+        <v>38.66</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>80</v>
       </c>
       <c r="B44">
-        <v>45.3</v>
+        <v>48.89</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>81</v>
       </c>
       <c r="B45">
-        <v>57.76</v>
+        <v>59.36</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>82</v>
       </c>
       <c r="B46">
-        <v>50.1</v>
+        <v>55.59</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>83</v>
       </c>
       <c r="B47">
-        <v>64.95999999999999</v>
+        <v>66.86</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>84</v>
       </c>
       <c r="B48">
-        <v>50.76</v>
+        <v>54.66</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>85</v>
       </c>
       <c r="B49">
-        <v>61.8</v>
+        <v>65.7</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>86</v>
       </c>
       <c r="B50">
-        <v>59.86</v>
+        <v>63.76</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>87</v>
       </c>
       <c r="B51">
-        <v>46.56</v>
+        <v>47.86</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>88</v>
       </c>
       <c r="B52">
-        <v>63.66</v>
+        <v>67.86</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>89</v>
       </c>
       <c r="B53">
-        <v>35.8</v>
+        <v>50.85</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>73.66</v>
+        <v>81.76000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10909,10 +10909,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>71.36</v>
+        <v>71.45999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10920,15 +10920,15 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>69.76000000000001</v>
+        <v>71.36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B6">
-        <v>69.56</v>
+        <v>71.36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10936,23 +10936,23 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>69.26000000000001</v>
+        <v>71.16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B8">
-        <v>64.95999999999999</v>
+        <v>67.86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>63.66</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10960,23 +10960,23 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>61.8</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>60.66</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>60.36</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10984,151 +10984,151 @@
         <v>86</v>
       </c>
       <c r="B13">
-        <v>59.86</v>
+        <v>63.76</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B14">
-        <v>59.76</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>59.56</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B16">
-        <v>58.51</v>
+        <v>59.69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B17">
-        <v>58.4</v>
+        <v>59.36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18">
-        <v>58.26</v>
+        <v>58.51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>57.76</v>
+        <v>58.26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>56.65</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B21">
-        <v>55.96</v>
+        <v>57.96</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B22">
-        <v>54.36</v>
+        <v>57.56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>54.06</v>
+        <v>57.26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B24">
-        <v>53.06</v>
+        <v>56.65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>52.36</v>
+        <v>56.09</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B26">
-        <v>51.05</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B27">
-        <v>50.76</v>
+        <v>54.95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>50.6</v>
+        <v>54.66</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>50.1</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>49.16</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31">
-        <v>48.46</v>
+        <v>52.39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -11136,47 +11136,47 @@
         <v>72</v>
       </c>
       <c r="B32">
-        <v>48.06</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B33">
-        <v>47.66</v>
+        <v>50.85</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>47.2</v>
+        <v>50.76</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B35">
-        <v>46.56</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>45.86</v>
+        <v>48.96</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>45.46</v>
+        <v>48.89</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -11184,71 +11184,71 @@
         <v>80</v>
       </c>
       <c r="B38">
-        <v>45.3</v>
+        <v>48.89</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>45.3</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B40">
-        <v>44.06</v>
+        <v>48.29</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="B41">
-        <v>43.1</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B42">
-        <v>41.6</v>
+        <v>47.16</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43">
-        <v>39.66</v>
+        <v>46.79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>39.66</v>
+        <v>44.06</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B45">
-        <v>38.5</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>35.8</v>
+        <v>43.56</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -11256,7 +11256,7 @@
         <v>79</v>
       </c>
       <c r="B47">
-        <v>34.76</v>
+        <v>38.66</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -11269,18 +11269,18 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B49">
-        <v>30.32</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>30.06</v>
+        <v>31.92</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -11288,23 +11288,23 @@
         <v>71</v>
       </c>
       <c r="B51">
-        <v>26.51</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>23.26</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B53">
-        <v>21.7</v>
+        <v>25.16</v>
       </c>
     </row>
   </sheetData>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -779,7 +779,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>48.89</v>
+        <v>54.1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>33.96</v>
+        <v>38.26</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>71.45999999999999</v>
+        <v>74.06</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>57.96</v>
+        <v>62.26</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>57.26</v>
+        <v>61.56</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>71.16</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>71.36</v>
+        <v>72.86</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>52.39</v>
+        <v>60.2</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>59.69</v>
+        <v>72.7</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>49</v>
       </c>
       <c r="B13">
-        <v>49.36</v>
+        <v>53.66</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>52.66</v>
+        <v>56.96</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>31.92</v>
+        <v>37.82</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>53.66</v>
+        <v>56.26</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>56.09</v>
+        <v>63.9</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>55</v>
       </c>
       <c r="B19">
-        <v>50.76</v>
+        <v>54.16</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>56</v>
       </c>
       <c r="B20">
-        <v>26.89</v>
+        <v>40.6</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>57</v>
       </c>
       <c r="B21">
-        <v>56.65</v>
+        <v>57.45</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>58</v>
       </c>
       <c r="B22">
-        <v>48.29</v>
+        <v>57.6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>46.79</v>
+        <v>54.6</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>60</v>
       </c>
       <c r="B24">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>61</v>
       </c>
       <c r="B25">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>62</v>
       </c>
       <c r="B26">
-        <v>58.26</v>
+        <v>62.56</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>63</v>
       </c>
       <c r="B27">
-        <v>57.96</v>
+        <v>57.66</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>65</v>
       </c>
       <c r="B29">
-        <v>71.36</v>
+        <v>73.95999999999999</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>66</v>
       </c>
       <c r="B30">
-        <v>48.96</v>
+        <v>51.56</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>67</v>
       </c>
       <c r="B31">
-        <v>47.16</v>
+        <v>49.76</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>68</v>
       </c>
       <c r="B32">
-        <v>25.16</v>
+        <v>43.46</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>69</v>
       </c>
       <c r="B33">
-        <v>81.76000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>70</v>
       </c>
       <c r="B34">
-        <v>61.96</v>
+        <v>64.56</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>71</v>
       </c>
       <c r="B35">
-        <v>31.61</v>
+        <v>43.51</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="B36">
-        <v>51.66</v>
+        <v>57.46</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>73</v>
       </c>
       <c r="B37">
-        <v>61.96</v>
+        <v>64.56</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>74</v>
       </c>
       <c r="B38">
-        <v>54.95</v>
+        <v>59.25</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -5182,7 +5182,7 @@
         <v>75</v>
       </c>
       <c r="B39">
-        <v>65.06</v>
+        <v>84.86</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -5301,7 +5301,7 @@
         <v>76</v>
       </c>
       <c r="B40">
-        <v>34.36</v>
+        <v>60.16</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="B41">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -5539,7 +5539,7 @@
         <v>78</v>
       </c>
       <c r="B42">
-        <v>57.56</v>
+        <v>61.66</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>79</v>
       </c>
       <c r="B43">
-        <v>38.66</v>
+        <v>42.96</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5777,7 +5777,7 @@
         <v>80</v>
       </c>
       <c r="B44">
-        <v>48.89</v>
+        <v>54.1</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>81</v>
       </c>
       <c r="B45">
-        <v>59.36</v>
+        <v>61.96</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -6015,7 +6015,7 @@
         <v>82</v>
       </c>
       <c r="B46">
-        <v>55.59</v>
+        <v>64.2</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -6253,7 +6253,7 @@
         <v>84</v>
       </c>
       <c r="B48">
-        <v>54.66</v>
+        <v>58.96</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>85</v>
       </c>
       <c r="B49">
-        <v>65.7</v>
+        <v>70</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>86</v>
       </c>
       <c r="B50">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>87</v>
       </c>
       <c r="B51">
-        <v>47.86</v>
+        <v>51.26</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>88</v>
       </c>
       <c r="B52">
-        <v>67.86</v>
+        <v>72.16</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>89</v>
       </c>
       <c r="B53">
-        <v>50.85</v>
+        <v>55.9</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -10893,18 +10893,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>81.76000000000001</v>
+        <v>84.86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>71.70999999999999</v>
+        <v>84.26000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10912,7 +10912,7 @@
         <v>41</v>
       </c>
       <c r="B4">
-        <v>71.45999999999999</v>
+        <v>74.06</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10920,111 +10920,111 @@
         <v>65</v>
       </c>
       <c r="B5">
-        <v>71.36</v>
+        <v>73.95999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>71.36</v>
+        <v>73.76000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>71.16</v>
+        <v>72.86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B8">
-        <v>67.86</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>66.86</v>
+        <v>72.16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B10">
-        <v>65.7</v>
+        <v>71.70999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B11">
-        <v>65.06</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="B12">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>63.76</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B14">
-        <v>61.96</v>
+        <v>66.86</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>61.96</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B16">
-        <v>59.69</v>
+        <v>64.56</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>59.36</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B18">
-        <v>58.51</v>
+        <v>63.9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11032,7 +11032,7 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <v>58.26</v>
+        <v>62.56</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11040,15 +11040,15 @@
         <v>42</v>
       </c>
       <c r="B20">
-        <v>57.96</v>
+        <v>62.26</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B21">
-        <v>57.96</v>
+        <v>61.96</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11056,7 +11056,7 @@
         <v>78</v>
       </c>
       <c r="B22">
-        <v>57.56</v>
+        <v>61.66</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11064,119 +11064,119 @@
         <v>44</v>
       </c>
       <c r="B23">
-        <v>57.26</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>56.65</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B25">
-        <v>56.09</v>
+        <v>60.16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>55.59</v>
+        <v>59.25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B27">
-        <v>54.95</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B28">
-        <v>54.66</v>
+        <v>58.51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B29">
-        <v>53.66</v>
+        <v>57.66</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>52.66</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>52.39</v>
+        <v>57.46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>51.66</v>
+        <v>57.45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B33">
-        <v>50.85</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B34">
-        <v>50.76</v>
+        <v>56.26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B35">
-        <v>49.36</v>
+        <v>55.9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B36">
-        <v>48.96</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <v>48.89</v>
+        <v>54.16</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -11184,127 +11184,127 @@
         <v>80</v>
       </c>
       <c r="B38">
-        <v>48.89</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>48.5</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>48.29</v>
+        <v>53.66</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B41">
-        <v>47.86</v>
+        <v>51.56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B42">
-        <v>47.16</v>
+        <v>51.26</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>46.79</v>
+        <v>49.76</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B44">
-        <v>44.06</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46">
-        <v>43.56</v>
+        <v>47.86</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>38.66</v>
+        <v>44.06</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B48">
-        <v>34.36</v>
+        <v>43.51</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B49">
-        <v>33.96</v>
+        <v>43.46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B50">
-        <v>31.92</v>
+        <v>42.96</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>31.61</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B52">
-        <v>26.89</v>
+        <v>38.26</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>25.16</v>
+        <v>37.82</v>
       </c>
     </row>
   </sheetData>

--- a/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
+++ b/liga_classica/datasets_liga_classica/Pontuacoes_Liga_Classica_Completa.xlsx
@@ -3754,7 +3754,7 @@
         <v>63</v>
       </c>
       <c r="B27">
-        <v>57.66</v>
+        <v>59.16</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>68</v>
       </c>
       <c r="B32">
-        <v>43.46</v>
+        <v>44.26</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -11093,26 +11093,26 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B27">
-        <v>58.96</v>
+        <v>59.16</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="B28">
-        <v>58.51</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
-        <v>57.66</v>
+        <v>58.51</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11253,26 +11253,26 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B47">
-        <v>44.06</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>43.51</v>
+        <v>44.06</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B49">
-        <v>43.46</v>
+        <v>43.51</v>
       </c>
     </row>
     <row r="50" spans="1:2">
